--- a/history.xlsx
+++ b/history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fcf0a8cb923369c2/Desktop/SI 649/NVizProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AC73426F-E6E2-41DA-AEA6-594041ED3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFF49275-54D1-4CEB-9EFF-CC5C7B59B575}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{AC73426F-E6E2-41DA-AEA6-594041ED3AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6A1499B-896C-44EA-86B9-7189DF51B1D5}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{630D94EE-4FA6-4C21-B301-97FDDDC4E4D2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>type</t>
   </si>
@@ -44,15 +44,9 @@
     <t>incandescent</t>
   </si>
   <si>
-    <t>people</t>
-  </si>
-  <si>
     <t>Humphry Davy</t>
   </si>
   <si>
-    <t>story</t>
-  </si>
-  <si>
     <t>Thomas Edison</t>
   </si>
   <si>
@@ -104,12 +98,6 @@
     <t>General Electric</t>
   </si>
   <si>
-    <t>Ed Hammer</t>
-  </si>
-  <si>
-    <t>Invented the spiral CFL, making it energy-efficient.</t>
-  </si>
-  <si>
     <t>led</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>Developed the first documented LED, though it was not widely understood or commercialized at the time.</t>
   </si>
   <si>
-    <t>Created the first practical visible-spectrum red LED.</t>
-  </si>
-  <si>
     <t>Shuji Nakamura</t>
   </si>
   <si>
@@ -140,13 +125,19 @@
     <t>Developed the first high-brightness blue LED - enabled white LED lighting along with later advancements.</t>
   </si>
   <si>
-    <t>Nobel Prize</t>
-  </si>
-  <si>
-    <t>Shuji Nakamura, Isamu Akasaki, and Hiroshi Amano were awarded the Nobel Prize in Physics for their invention of efficient blue LEDs, leading to widespread adoption of white LED lighting.</t>
-  </si>
-  <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>Achievement</t>
+  </si>
+  <si>
+    <t>People</t>
   </si>
 </sst>
 </file>
@@ -200,6 +191,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,37 +514,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5749916A-88EF-41B9-8638-8C7E3BB01C7A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>826</v>
@@ -558,15 +559,21 @@
         <v>1802</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>50.118600000000001</v>
+      </c>
+      <c r="G2">
+        <v>-5.5370999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>840</v>
@@ -575,15 +582,21 @@
         <v>1879</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>41.293900000000001</v>
+      </c>
+      <c r="G3">
+        <v>-82.580200000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>826</v>
@@ -592,15 +605,21 @@
         <v>1883</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>54.906100000000002</v>
+      </c>
+      <c r="G4">
+        <v>-1.3837999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>380</v>
@@ -609,15 +628,21 @@
         <v>1800</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>45.808100000000003</v>
+      </c>
+      <c r="G5">
+        <v>9.0825999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>840</v>
@@ -626,15 +651,21 @@
         <v>1913</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>42.273200000000003</v>
+      </c>
+      <c r="G6">
+        <v>-73.007199999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>840</v>
@@ -643,15 +674,21 @@
         <v>1890</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>40.712800000000001</v>
+      </c>
+      <c r="G7">
+        <v>-74.006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>840</v>
@@ -660,143 +697,128 @@
         <v>1934</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>40.678199999999997</v>
+      </c>
+      <c r="G8">
+        <v>-73.944199999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>528</v>
+      </c>
+      <c r="D9">
+        <v>1980</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="F9">
+        <v>52.1601</v>
+      </c>
+      <c r="G9">
+        <v>4.4855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>826</v>
+      </c>
+      <c r="D10">
+        <v>1907</v>
+      </c>
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
+      <c r="F10">
+        <v>52.497799999999998</v>
+      </c>
+      <c r="G10">
+        <v>-2.1726000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>643</v>
+      </c>
+      <c r="D11">
+        <v>1927</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11">
+        <v>56.858499999999999</v>
+      </c>
+      <c r="G11">
+        <v>35.9176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12">
         <v>840</v>
       </c>
-      <c r="D9">
-        <v>1976</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>528</v>
-      </c>
-      <c r="D10">
-        <v>1980</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D12">
+        <v>1972</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>41.878</v>
+      </c>
+      <c r="G12">
+        <v>-93.097700000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="C11">
-        <v>826</v>
-      </c>
-      <c r="D11">
-        <v>1907</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>643</v>
-      </c>
-      <c r="D12">
-        <v>1927</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C13">
+        <v>392</v>
+      </c>
+      <c r="D13">
+        <v>1993</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>840</v>
-      </c>
-      <c r="D13">
-        <v>1962</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>840</v>
-      </c>
-      <c r="D14">
-        <v>1972</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>392</v>
-      </c>
-      <c r="D15">
-        <v>1993</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>392</v>
-      </c>
-      <c r="D16">
-        <v>2014</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
+      <c r="F13">
+        <v>33.839199999999998</v>
+      </c>
+      <c r="G13">
+        <v>132.76570000000001</v>
       </c>
     </row>
   </sheetData>
